--- a/data_year/zb/国民经济核算/资金流量表(金融交易)/政府部门/资金来源.xlsx
+++ b/data_year/zb/国民经济核算/资金流量表(金融交易)/政府部门/资金来源.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,17 +538,15 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>281.62</v>
+        <v>3835.1</v>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>65.03</v>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -558,15 +556,15 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>2598</v>
+        <v>9736</v>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>123.57</v>
+        <v>194.2355563</v>
       </c>
       <c r="R2" t="n">
-        <v>3068.21</v>
+        <v>13920.3023</v>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
@@ -575,17 +573,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>994.4913</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.06684391491199</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>2107</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>246</v>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -595,15 +593,15 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>3726.84508</v>
+        <v>6142</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>66.88602251</v>
+        <v>1691</v>
       </c>
       <c r="R3" t="n">
-        <v>4796.3</v>
+        <v>10185</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -612,18 +610,16 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>939.3514</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.69252088834419</v>
-      </c>
+        <v>7406</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>120.0297432</v>
+        <v>273</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -634,15 +630,15 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>5212.96</v>
+        <v>8783</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>-1865.21972529</v>
+        <v>-18</v>
       </c>
       <c r="R4" t="n">
-        <v>4412.81393879834</v>
+        <v>16445</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -651,18 +647,16 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>1184.414378</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-3.87632254994478</v>
-      </c>
+        <v>7336</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>143.3293456</v>
+        <v>278.547655621416</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -673,15 +667,15 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>3174</v>
+        <v>12949</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>118.678160912</v>
+        <v>29.0540178696946</v>
       </c>
       <c r="R5" t="n">
-        <v>4616.54556196206</v>
+        <v>20592.6016734911</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -690,15 +684,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>1650.078422</v>
+        <v>6760</v>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>981</v>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
@@ -708,15 +704,15 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>2996.5</v>
+        <v>11804</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>242.2510568683</v>
+        <v>-43</v>
       </c>
       <c r="R6" t="n">
-        <v>4888.8294788683</v>
+        <v>19502</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -725,15 +721,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>1478</v>
+        <v>7025</v>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>116.273818266817</v>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -743,15 +741,13 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>2675</v>
+        <v>47252</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="n">
-        <v>106</v>
-      </c>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>4259</v>
+        <v>54393.2738182668</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -760,15 +756,19 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>3451</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+        <v>7906</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-619.786292259909</v>
+      </c>
+      <c r="E8" t="n">
+        <v>534.464194505194</v>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
@@ -778,15 +778,15 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>17292</v>
+        <v>71207.369124</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>-34903.3548445908</v>
       </c>
       <c r="R8" t="n">
-        <v>20744</v>
+        <v>44124.6921816545</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -795,15 +795,19 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>4097</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+        <v>8256</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-350</v>
+      </c>
+      <c r="E9" t="n">
+        <v>197</v>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
@@ -812,16 +816,14 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
-        <v>1027</v>
-      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>672</v>
+        <v>-21150</v>
       </c>
       <c r="R9" t="n">
-        <v>5797</v>
+        <v>42759</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -830,18 +832,18 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>2927</v>
+        <v>12116.9036467079</v>
       </c>
       <c r="D10" t="n">
-        <v>146</v>
+        <v>136.245555015631</v>
       </c>
       <c r="E10" t="n">
-        <v>26</v>
+        <v>429.78093373248</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -851,16 +853,14 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
-        <v>8182</v>
-      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>107</v>
+        <v>4447.9124853744</v>
       </c>
       <c r="R10" t="n">
-        <v>11387</v>
+        <v>65662.67829183039</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -869,15 +869,19 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>3835.1</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+        <v>7549.36635329211</v>
+      </c>
+      <c r="D11" t="n">
+        <v>253.861180274419</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1935.59711428858</v>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -886,16 +890,14 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
-        <v>9736</v>
-      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>194.2355563</v>
+        <v>7356.35926054411</v>
       </c>
       <c r="R11" t="n">
-        <v>13920.3023</v>
+        <v>64299.7236833992</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -904,16 +906,18 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>2107</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>-2599.16000000002</v>
+      </c>
+      <c r="D12" t="n">
+        <v>102.063548594815</v>
+      </c>
       <c r="E12" t="n">
-        <v>246</v>
+        <v>4454.634444133</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -923,316 +927,18 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
-        <v>6142</v>
-      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>1691</v>
+        <v>2864.5549639028</v>
       </c>
       <c r="R12" t="n">
-        <v>10185</v>
+        <v>88461.18110263059</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="n">
-        <v>7406</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>273</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
-        <v>8783</v>
-      </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="n">
-        <v>-18</v>
-      </c>
-      <c r="R13" t="n">
-        <v>16445</v>
-      </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
-        <v>7336</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>278.547655621416</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>12949</v>
-      </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="n">
-        <v>29.0540178696946</v>
-      </c>
-      <c r="R14" t="n">
-        <v>20592.6016734911</v>
-      </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
-        <v>6760</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>981</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>11804</v>
-      </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>-43</v>
-      </c>
-      <c r="R15" t="n">
-        <v>19502</v>
-      </c>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
-        <v>7025</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>116.273818266817</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>47252</v>
-      </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="n">
-        <v>54393.2738182668</v>
-      </c>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>7906</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-619.786292259909</v>
-      </c>
-      <c r="E17" t="n">
-        <v>534.464194505194</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>71207.369124</v>
-      </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="n">
-        <v>-34903.3548445908</v>
-      </c>
-      <c r="R17" t="n">
-        <v>44124.6921816545</v>
-      </c>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
-        <v>8256</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-350</v>
-      </c>
-      <c r="E18" t="n">
-        <v>197</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="n">
-        <v>-21150</v>
-      </c>
-      <c r="R18" t="n">
-        <v>42759</v>
-      </c>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="n">
-        <v>12116.9036467079</v>
-      </c>
-      <c r="D19" t="n">
-        <v>136.245555015631</v>
-      </c>
-      <c r="E19" t="n">
-        <v>429.78093373248</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="n">
-        <v>4447.9124853744</v>
-      </c>
-      <c r="R19" t="n">
-        <v>65662.67829183039</v>
-      </c>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="n">
-        <v>7549.36635329211</v>
-      </c>
-      <c r="D20" t="n">
-        <v>253.861180274419</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1935.59711428858</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="n">
-        <v>7356.35926054411</v>
-      </c>
-      <c r="R20" t="n">
-        <v>64299.7236833992</v>
-      </c>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
